--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <t>learnseleniumetlhive@gmail.com</t>
   </si>
   <si>
-    <t>abcd@1234</t>
+    <t>abcd@123</t>
   </si>
 </sst>
 </file>
@@ -387,10 +387,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -437,7 +437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
